--- a/log/log_201608040108_胡曦伟.xlsx
+++ b/log/log_201608040108_胡曦伟.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>日期</t>
   </si>
@@ -539,6 +539,74 @@
   </si>
   <si>
     <t>以后如需加入新包，可随时加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建框架整合mybaits和springmvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本搭建完成但环境出现问题
+百度加入配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成配置搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续搭建框架，完善实现类菜单的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入已想到的内容，如需不冲进行添加，实现类基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入其他实体的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入其它实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成加入实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充实现方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充过程
+出现问题@Override
+注解无法导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决实现类完成四个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入controller类和jsp页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller类中过度冗余，
+希望编写工具类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计下面编写实现类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1253,14 +1321,98 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="E24" s="9"/>
+    <row r="23" spans="1:5" ht="28.8">
+      <c r="A23" s="1">
+        <v>43327</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8">
+      <c r="A24" s="1">
+        <v>43328</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43329</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>43330</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2">
+      <c r="A27" s="1">
+        <v>43331</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8">
+      <c r="A28" s="1">
+        <v>43332</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/log/log_201608040108_胡曦伟.xlsx
+++ b/log/log_201608040108_胡曦伟.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
   <si>
     <t>日期</t>
   </si>
@@ -607,6 +607,81 @@
   </si>
   <si>
     <t>预计下面编写实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入资金类实现方法，准
+备学习base64编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习base64编码
+2.实现资金和use的链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入client实现类和user用户jsp页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp页面有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp基础过少，目前很多功能
+无法实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入工具类util，但未定义myutil内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入tree和user的controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入admain控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望与web层实现交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇到问题再做处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习编写中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉有些困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习工具类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1412,6 +1487,123 @@
       </c>
       <c r="E28" s="9" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43333</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>43334</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43335</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43336</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8">
+      <c r="A33" s="1">
+        <v>43337</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>43338</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8">
+      <c r="A36" s="1">
+        <v>43340</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>43341</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
